--- a/INTLINE/data/924/NBS/Total Value of Imports and Exports.xlsx
+++ b/INTLINE/data/924/NBS/Total Value of Imports and Exports.xlsx
@@ -1,37 +1,291 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Total Value of Imports and Exports(RMB)(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Total Value of Exports(RMB)(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Total Value of Imports(RMB)(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Balance of Imports and Exports(RMB)(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Total Value of Imports and Exports(USD)(million)</t>
+  </si>
+  <si>
+    <t>Total Value of Exports(USD)(million)</t>
+  </si>
+  <si>
+    <t>Total Value of Imports(USD)(million)</t>
+  </si>
+  <si>
+    <t>Balance of Trade(USD)(million)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +300,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2176 +616,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicators</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
+    <row r="1" spans="1:74">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Imports and Exports(RMB)(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:74">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
         <v>391009</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>322215.24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>315627.32</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>305008.13</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>278099.24</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>243386.46</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>245502.93</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>264241.77</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>258168.89</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>244160.21</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>236401.95</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>201722.34</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>150648.06</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>179921.47</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>166924.07</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>140974.74</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>116921.77</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>95539.09</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>70483.45</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>51378.15</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>42183.62</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>39273.25</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>29896.23</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>26849.68</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>26967.24</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>24133.86</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>23499.94</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>20381.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>11271.02</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>9119.620000000001</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>7225.75</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>5560.12</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>4155.92</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>3821.79</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>3084.16</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>2580.37</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>2066.71</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>1201.03</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>860.15</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>771.37</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>735.34</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>570.04</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>454.6</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>355.04</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>272.5</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>264.1</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>290.4</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>292.2</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>220.5</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>146.9</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>120.9</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>112.9</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>107</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>108.5</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>112.2</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>127.1</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>118.4</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>97.5</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>85.7</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>80.90000000000001</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>90.7</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>128.4</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>149.3</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>128.7</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>104.5</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>108.7</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>109.8</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>84.7</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>80.90000000000001</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>64.59999999999999</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>59.5</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>41.5</v>
       </c>
-      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Exports(RMB)(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:74">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
         <v>217348</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>179278.83</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>172373.63</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>164127.81</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>153309.43</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>138419.29</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>141166.83</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>143883.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>137131.43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>129359.25</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>123240.56</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>107022.84</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>82029.69</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>100394.94</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>93627.14</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>77597.89</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>62648.09</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>49103.33</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>36287.89</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>26947.87</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>22024.44</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>20634.44</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>16159.77</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>15223.54</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>15160.68</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>12576.43</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>12451.81</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>10421.84</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>5284.81</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>4676.29</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>3827.1</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>2985.84</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>1956.06</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>1766.72</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>1469.95</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>1082.11</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>808.86</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>580.5599999999999</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>438.33</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>413.83</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>367.61</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>271.19</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>211.7</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>167.65</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>139.7</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>134.8</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>143</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>139.4</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>116.9</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>82.90000000000001</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>68.5</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>56.8</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>59.8</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>57.6</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>58.8</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>66</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>63.1</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>55.4</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>50</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>47.1</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>47.7</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>63.3</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>78.09999999999999</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>67</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>54.5</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>55.7</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>48.7</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>40</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>34.8</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>27.1</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>24.2</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>20.2</v>
       </c>
-      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Imports(RMB)(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:74">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
         <v>173661</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>142936.4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>143253.69</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>140880.32</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>124789.81</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>104967.17</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>104336.1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>120358.03</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>121037.46</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>114800.96</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>113161.39</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>94699.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>68618.37</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>79526.53</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>73296.92999999999</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>63376.86</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>54273.68</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>46435.76</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>34195.56</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>24430.27</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>20159.18</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>18638.81</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>13736.46</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>11626.14</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>11806.56</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>11557.43</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>11048.13</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>9960.059999999999</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>5986.21</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>4443.33</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>3398.65</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>2574.28</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>2199.86</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>2055.07</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>1614.21</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>1498.26</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>1257.85</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>620.47</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>421.82</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>357.54</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>367.73</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>298.84</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>242.9</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>187.39</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>132.8</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>129.3</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>147.4</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>152.8</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>103.6</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>64</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>52.4</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>56.1</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>47.2</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>50.9</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>53.4</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>61.1</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>55.3</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>42.1</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>35.7</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>33.8</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>43</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>65.09999999999999</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>71.2</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>61.7</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>50</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>53</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>61.1</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>44.7</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>46.1</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>37.5</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>35.3</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>21.3</v>
       </c>
-      <c r="BV4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Balance of Imports and Exports(RMB)(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:74">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
         <v>43687</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>36342.43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>29119.94</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>23247.49</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>28519.62</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>33452.12</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>36830.73</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>23525.72</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>16093.98</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>14558.29</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>10079.16</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>12323.34</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>13411.32</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>20868.41</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>20330.2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>14221.03</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>8374.41</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>2667.57</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>2092.32</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>2517.6</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>1865.26</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>1995.63</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>2423.31</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>3597.4</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>3354.12</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>1019</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>1403.68</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>461.78</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>-701.4</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>232.96</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>428.45</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>411.56</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>-243.8</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>-288.4</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>-144.2</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>-416.2</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>-448.99</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>-40</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>16.5</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>56.3</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>-0.1</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>-27.6</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>-31.2</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>-19.74</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>6.9</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>5.5</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>-4.4</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>-13.4</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>13.3</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>18.9</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>16.1</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>0.7</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>12.6</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>6.7</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>5.4</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>4.9</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>7.8</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>13.3</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>14.3</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>13.3</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>4.7</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>-1.8</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>6.9</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>5.3</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>4.5</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>2.7</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>-12.4</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>-4.7</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>-11.3</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>-10.4</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>-11.1</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>-1.1</v>
       </c>
-      <c r="BV5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Imports and Exports(USD)(million)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+    <row r="6" spans="1:74">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
         <v>4655913.16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4577891.07</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>4622415</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4107138</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3685557.41</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>3953033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4301527</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>4158993</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>3867119</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>3641864</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>2974001</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>2207535</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>2563255</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>2176175</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>1760438</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>1421906</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1154554</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>850988</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>620766</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>509651</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>474297</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>360630</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>323949</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>325162</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>289881</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>280864</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>236621</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>195703</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>165525</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>135634</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>115436</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>111678</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>102784</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>82653</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>73846</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>69602</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>53549</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>43616</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>41606</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>44022</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>38136</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>29330</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>20638</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>14800</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>13430</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>14750</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>14570</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>10980</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>6300</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>4840</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>4590</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>4030</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>4050</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>4160</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>4620</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>4250</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>3470</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>2920</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>2660</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>2940</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>3810</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>4380</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>3870</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>3100</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>3210</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>3140</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>2440</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>2370</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>1940</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>1960</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>1130</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Exports(USD)(million)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+    <row r="7" spans="1:74">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
         <v>2589951.61</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2499482.09</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2486682</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2263345</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2097631.19</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2273468</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>2342293</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>2209004</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2048714</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>1898381</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1577754</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>1201612</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1430693</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>1220060</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>968978</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>761953</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>593326</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>438228</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>325596</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>266098</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>249203</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>194931</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>183712</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>182792</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>151048</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>148780</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>121006</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>91744</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>84940</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>71843</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>62091</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>52538</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>47516</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>39437</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>30942</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>27350</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>26139</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>22226</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>22321</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>22007</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>18119</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>13660</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>9745</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>7590</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>6850</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>7260</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>6950</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>5820</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>3440</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>2640</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>2260</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>2200</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>2100</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>2140</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>2370</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>2230</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>1920</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>1650</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>1490</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>1490</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>1860</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>2260</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>1980</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>1600</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>1650</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>1410</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>1150</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>1020</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>820</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>760</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>550</v>
       </c>
-      <c r="BV7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Total Value of Imports(USD)(million)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+    <row r="8" spans="1:74">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
         <v>2065961.55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2078408.98</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2135734</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1843793</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1587926.22</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1679564</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1959235</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1949989</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1818405</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1743484</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1396247</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1005923</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1132562</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>956115</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>791461</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>659953</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>561229</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>412760</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>295170</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>243553</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>225094</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>165699</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>140237</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>142370</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>138833</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>132084</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>115615</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>103959</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>80585</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>63791</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>53345</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>59140</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>55268</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>43216</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>42904</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>42252</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>27410</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>21390</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>19285</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>22015</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>20017</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>15670</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>10893</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>7210</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>6580</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>7490</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>7620</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>5160</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>2860</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>2200</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>2330</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>1830</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>1950</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>2020</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>2250</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>2020</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>1550</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>1270</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>1170</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>1450</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>1950</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>2120</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>1890</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>1500</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>1560</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>1730</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>1290</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>1350</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>1120</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>1200</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>580</v>
       </c>
-      <c r="BV8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Balance of Trade(USD)(million)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+    <row r="9" spans="1:74">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
         <v>523990.05</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>421073.11</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>350948</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>419552</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>509705</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>593904</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>383058</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>259015</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>230309</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>154897</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>181507</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>195689</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>298131</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>263944</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>177517</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>102001</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>32097</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>25468</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>30426</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>22545</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>24109</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>29232</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>43475</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>40422</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>12215</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>16696</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>5391</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>-12215</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>4355</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>8052</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>8746</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>-6600</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>-7750</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>-3770</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>-11970</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>-14902</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>-1270</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>840</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>3030</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>-10</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>-1898</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>-2010</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>-1148</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>380</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>270</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>-230</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>-670</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>660</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>580</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>440</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>-70</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>370</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>150</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>120</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>120</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>210</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>370</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>380</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>320</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>40</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>-90</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>140</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>90</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>100</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>90</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>-320</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>-140</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>-330</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>-300</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>-440</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>-30</v>
       </c>
-      <c r="BV9" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>